--- a/excel2mysql/excels/comp_game_config.xlsx
+++ b/excel2mysql/excels/comp_game_config.xlsx
@@ -19,14 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>int(11)|PRI|auto_increment</t>
+  </si>
+  <si>
     <t>ParamA</t>
   </si>
   <si>
+    <t>float(11,5)||</t>
+  </si>
+  <si>
     <t>淘汰制参数A</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
   </si>
   <si>
     <t>WinScore</t>
+  </si>
+  <si>
+    <t>int(11)||</t>
   </si>
   <si>
     <t>积分制胜利底分</t>
@@ -405,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,100 +425,100 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -541,7 +550,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -573,7 +582,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -600,12 +609,12 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.2</v>
@@ -632,6 +641,38 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
     </row>
